--- a/דוח_חוסרים.xlsx
+++ b/דוח_חוסרים.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="99">
   <si>
     <t>SKU</t>
   </si>
@@ -37,30 +37,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2352</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>335</t>
   </si>
   <si>
@@ -70,21 +52,6 @@
     <t>3434</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
     <t>535</t>
   </si>
   <si>
@@ -94,42 +61,180 @@
     <t>567</t>
   </si>
   <si>
-    <t>5710840218385</t>
-  </si>
-  <si>
-    <t>5902047172922</t>
-  </si>
-  <si>
-    <t>99</t>
+    <t>5902047174140</t>
+  </si>
+  <si>
+    <t>5902047174142</t>
+  </si>
+  <si>
+    <t>5902047174144</t>
+  </si>
+  <si>
+    <t>5902047174146</t>
+  </si>
+  <si>
+    <t>5902047174148</t>
+  </si>
+  <si>
+    <t>5902047174152</t>
+  </si>
+  <si>
+    <t>5902047174155</t>
+  </si>
+  <si>
+    <t>5902047174156</t>
+  </si>
+  <si>
+    <t>5902047174158</t>
+  </si>
+  <si>
+    <t>5902047174180</t>
+  </si>
+  <si>
+    <t>5902047174182</t>
+  </si>
+  <si>
+    <t>5902047174184</t>
+  </si>
+  <si>
+    <t>5902047174185</t>
+  </si>
+  <si>
+    <t>5902047174186</t>
+  </si>
+  <si>
+    <t>5902047174188</t>
+  </si>
+  <si>
+    <t>5902047174190</t>
+  </si>
+  <si>
+    <t>5902047174192</t>
+  </si>
+  <si>
+    <t>5902047174194</t>
+  </si>
+  <si>
+    <t>5902047174196</t>
+  </si>
+  <si>
+    <t>5902047174198</t>
+  </si>
+  <si>
+    <t>5902047174211</t>
+  </si>
+  <si>
+    <t>5902047174214</t>
+  </si>
+  <si>
+    <t>5902047174217</t>
+  </si>
+  <si>
+    <t>5902047174219</t>
+  </si>
+  <si>
+    <t>5902047174220</t>
+  </si>
+  <si>
+    <t>5902047174221</t>
+  </si>
+  <si>
+    <t>5902047174222</t>
+  </si>
+  <si>
+    <t>5902047174224</t>
+  </si>
+  <si>
+    <t>5902047174226</t>
+  </si>
+  <si>
+    <t>5902047174228</t>
+  </si>
+  <si>
+    <t>5902047174230</t>
+  </si>
+  <si>
+    <t>5902047174232</t>
+  </si>
+  <si>
+    <t>5902047174234</t>
+  </si>
+  <si>
+    <t>5902047174236</t>
+  </si>
+  <si>
+    <t>5902047174238</t>
+  </si>
+  <si>
+    <t>5902047174240</t>
+  </si>
+  <si>
+    <t>5902047174242</t>
+  </si>
+  <si>
+    <t>5902047174244</t>
+  </si>
+  <si>
+    <t>5902047174246</t>
+  </si>
+  <si>
+    <t>5902047174248</t>
+  </si>
+  <si>
+    <t>5902047174250</t>
+  </si>
+  <si>
+    <t>5902047174252</t>
+  </si>
+  <si>
+    <t>5902047174254</t>
+  </si>
+  <si>
+    <t>5902047174256</t>
+  </si>
+  <si>
+    <t>5902047174258</t>
+  </si>
+  <si>
+    <t>5902047174271</t>
+  </si>
+  <si>
+    <t>5902047174274</t>
+  </si>
+  <si>
+    <t>5902047174275</t>
+  </si>
+  <si>
+    <t>5902047174277</t>
+  </si>
+  <si>
+    <t>5902047174279</t>
+  </si>
+  <si>
+    <t>5902047174281</t>
+  </si>
+  <si>
+    <t>5902047174283</t>
+  </si>
+  <si>
+    <t>5902047174285</t>
+  </si>
+  <si>
+    <t>5902047174289</t>
+  </si>
+  <si>
+    <t>5902227174242</t>
   </si>
   <si>
     <t>sdv</t>
   </si>
   <si>
-    <t>TTT</t>
-  </si>
-  <si>
     <t>fox racing</t>
   </si>
   <si>
     <t>Jeans</t>
   </si>
   <si>
-    <t>Scarlet</t>
-  </si>
-  <si>
-    <t>herhe</t>
-  </si>
-  <si>
-    <t>whwe</t>
-  </si>
-  <si>
-    <t>wbwy</t>
-  </si>
-  <si>
-    <t>Swimwear</t>
-  </si>
-  <si>
     <t>hteh</t>
   </si>
   <si>
@@ -139,88 +244,73 @@
     <t>erh</t>
   </si>
   <si>
-    <t>sbr</t>
-  </si>
-  <si>
-    <t>ehrh</t>
+    <t>shirts</t>
+  </si>
+  <si>
+    <t>fykf</t>
+  </si>
+  <si>
+    <t>hfnh</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>dress</t>
   </si>
   <si>
     <t>shorts</t>
   </si>
   <si>
-    <t>jersey</t>
-  </si>
-  <si>
-    <t>tnf</t>
-  </si>
-  <si>
-    <t>shirts</t>
-  </si>
-  <si>
-    <t>fykf</t>
-  </si>
-  <si>
-    <t>hfnh</t>
+    <t>tank top</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>leggings</t>
+  </si>
+  <si>
+    <t>short dress</t>
   </si>
   <si>
     <t>T-shirt</t>
   </si>
   <si>
-    <t>DARK HORSE</t>
-  </si>
-  <si>
-    <t>rgwg</t>
-  </si>
-  <si>
     <t>FOX</t>
   </si>
   <si>
-    <t>FOX-Home</t>
-  </si>
-  <si>
     <t>sdbwb</t>
   </si>
   <si>
+    <t>LongShirt</t>
+  </si>
+  <si>
     <t>Clothing</t>
   </si>
   <si>
-    <t>LongShirt</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
-    <t>jnrtj</t>
-  </si>
-  <si>
-    <t>clothing</t>
-  </si>
-  <si>
-    <t>bre</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
     <t>erg</t>
   </si>
   <si>
-    <t>rshb</t>
-  </si>
-  <si>
-    <t>fdb</t>
-  </si>
-  <si>
-    <t>cloths</t>
-  </si>
-  <si>
-    <t>fgj</t>
-  </si>
-  <si>
     <t>jty</t>
   </si>
   <si>
-    <t>dfn</t>
+    <t>baby boy</t>
+  </si>
+  <si>
+    <t>baby girls</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>women</t>
   </si>
 </sst>
 </file>
@@ -582,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +703,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2">
         <v>45799.50298611111</v>
@@ -633,19 +723,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2">
-        <v>45806.59511574074</v>
+        <v>45818.49819444444</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -653,19 +743,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2">
-        <v>45799.50077546296</v>
+        <v>45818.49819444444</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -673,19 +763,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2">
-        <v>45806.59511574074</v>
+        <v>45777.69719907407</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -693,19 +783,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2">
-        <v>45792.52638888889</v>
+        <v>45778.71429398148</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -713,19 +803,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2">
-        <v>45806.59511574074</v>
+        <v>45778.51263888889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -733,19 +823,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2">
-        <v>45776.47423611111</v>
+        <v>45818.4344212963</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -753,19 +843,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2">
-        <v>45806.59511574074</v>
+        <v>45780.49362268519</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -773,19 +863,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2">
-        <v>45780.85487268519</v>
+        <v>45780.5525</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -793,19 +883,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2">
-        <v>45777.69719907407</v>
+        <v>45842.9165625</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -813,19 +903,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2">
-        <v>45778.71429398148</v>
+        <v>45842.61548611111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -833,19 +923,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2">
-        <v>45778.51263888889</v>
+        <v>45831.9800925926</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -853,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2">
-        <v>45778.82841435185</v>
+        <v>45842.76148148148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -873,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2">
-        <v>45775.75944444445</v>
+        <v>45831.98150462963</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -893,19 +983,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2">
-        <v>45780.85491898148</v>
+        <v>45831.98207175926</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -913,19 +1003,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2">
-        <v>45769.89425925926</v>
+        <v>45831.98329861111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -933,19 +1023,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F18" s="2">
-        <v>45780.85480324074</v>
+        <v>45831.98353009259</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -953,19 +1043,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F19" s="2">
-        <v>45779.87034722222</v>
+        <v>45831.98378472222</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -973,19 +1063,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2">
-        <v>45780.49362268519</v>
+        <v>45831.97356481481</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -993,19 +1083,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2">
-        <v>45780.5525</v>
+        <v>45831.97081018519</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1013,19 +1103,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2">
-        <v>45818.41064814815</v>
+        <v>45842.76164351852</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1033,19 +1123,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2">
-        <v>45797.49528935185</v>
+        <v>45831.97274305556</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1053,19 +1143,839 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45831.97309027778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45831.97332175926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45831.97758101852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45842.7617824074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45831.97409722222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45831.97709490741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45831.97733796296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45831.94923611111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45831.95253472222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45831.95291666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45831.95327546296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45831.95700231481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45831.95357638889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45831.9537037037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45831.95607638889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45831.95636574074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45831.95664351852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45831.9608912037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45831.95731481481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45831.95998842592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45831.96034722222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45831.960625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45831.96670138889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="C24">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45831.96118055555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45831.96386574074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45831.96414351852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45831.96638888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45831.97011574074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45831.96697916667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45831.96930555555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45831.96954861111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45831.96986111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45831.9437962963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45831.94427083333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45831.94452546296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45831.94486111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45831.94528935185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45831.93386574074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45831.94049768519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45831.93909722222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="2">
-        <v>45769.8943287037</v>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45831.94005787037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45842.62422453704</v>
       </c>
     </row>
   </sheetData>
